--- a/dataset/soc_model/raw/sdm650.xlsx
+++ b/dataset/soc_model/raw/sdm650.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc9559\OneDrive\proj\wipe-v2\wipe-v2\dataset\soc_model\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BFED98C5-CDE2-4D94-9581-EB9E82502F8E}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{39F2A3C5-7F6C-457A-BEDF-9A24E6F9A843}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>item</t>
   </si>
@@ -817,10 +817,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$4:$B$11</c:f>
+              <c:f>'sd820'!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -844,16 +844,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$D$4:$D$11</c:f>
+              <c:f>'sd820'!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -877,6 +880,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1173,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$12:$B$24</c:f>
+              <c:f>'sd820'!$B$13:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1208,14 +1214,14 @@
                   <c:v>1747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1843</c:v>
+                  <c:v>1804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$D$12:$D$24</c:f>
+              <c:f>'sd820'!$D$13:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2944,7 +2950,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3117,11 +3123,11 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <f>0.8*D10</f>
+        <f t="shared" ref="F10:F11" si="2">0.8*D10</f>
         <v>200</v>
       </c>
       <c r="G10" s="1">
-        <f>0.2*D10</f>
+        <f t="shared" ref="G10:G11" si="3">0.2*D10</f>
         <v>50</v>
       </c>
     </row>
@@ -3137,32 +3143,32 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f>0.8*D11</f>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="G11" s="1">
-        <f>0.2*D11</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>400</v>
+        <v>1440</v>
       </c>
       <c r="D12">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <f>0.8*D12</f>
-        <v>176</v>
+        <f t="shared" ref="F12" si="4">0.8*D12</f>
+        <v>224</v>
       </c>
       <c r="G12" s="1">
-        <f>0.2*D12</f>
-        <v>44</v>
+        <f t="shared" ref="G12" si="5">0.2*D12</f>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3170,19 +3176,19 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>883</v>
+        <v>400</v>
       </c>
       <c r="D13">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f>0.8*D13</f>
-        <v>336</v>
+        <f t="shared" ref="F13:F18" si="6">0.8*D13</f>
+        <v>176</v>
       </c>
       <c r="G13" s="1">
-        <f>0.2*D13</f>
-        <v>84</v>
+        <f t="shared" ref="G13:G18" si="7">0.2*D13</f>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3190,18 +3196,19 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>940</v>
+        <v>883</v>
       </c>
       <c r="D14">
-        <v>450</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <f>0.8*D14</f>
-        <v>360</v>
+        <f t="shared" si="6"/>
+        <v>336</v>
       </c>
       <c r="G14" s="1">
-        <f>0.2*D14</f>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3209,19 +3216,18 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>998</v>
+        <v>940</v>
       </c>
       <c r="D15">
-        <v>500</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>450</v>
+      </c>
       <c r="F15" s="1">
-        <f>0.8*D15</f>
-        <v>400</v>
+        <f t="shared" si="6"/>
+        <v>360</v>
       </c>
       <c r="G15" s="1">
-        <f>0.2*D15</f>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3229,19 +3235,19 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>1056</v>
+        <v>998</v>
       </c>
       <c r="D16">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
-        <f>0.8*D16</f>
-        <v>448</v>
+        <f t="shared" si="6"/>
+        <v>400</v>
       </c>
       <c r="G16" s="1">
-        <f>0.2*D16</f>
-        <v>112</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3249,19 +3255,19 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>1113</v>
-      </c>
-      <c r="D17" s="1">
-        <v>600</v>
+        <v>1056</v>
+      </c>
+      <c r="D17">
+        <v>560</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <f>0.8*D17</f>
-        <v>480</v>
+        <f t="shared" si="6"/>
+        <v>448</v>
       </c>
       <c r="G17" s="1">
-        <f>0.2*D17</f>
-        <v>120</v>
+        <f t="shared" si="7"/>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3269,19 +3275,19 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>1190</v>
+        <v>1113</v>
       </c>
       <c r="D18" s="1">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
-        <f t="shared" ref="F18:F24" si="2">0.8*D18</f>
-        <v>544</v>
+        <f t="shared" si="6"/>
+        <v>480</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" ref="G18:G24" si="3">0.2*D18</f>
-        <v>136</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3289,19 +3295,19 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>1248</v>
+        <v>1190</v>
       </c>
       <c r="D19" s="1">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>592</v>
+        <f t="shared" ref="F19:F25" si="8">0.8*D19</f>
+        <v>544</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>148</v>
+        <f t="shared" ref="G19:G25" si="9">0.2*D19</f>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3309,19 +3315,19 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>1305</v>
+        <v>1248</v>
       </c>
       <c r="D20" s="1">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>640</v>
+        <f t="shared" si="8"/>
+        <v>592</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f t="shared" si="9"/>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3329,19 +3335,19 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>1382</v>
+        <v>1305</v>
       </c>
       <c r="D21" s="1">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>704</v>
+        <f t="shared" si="8"/>
+        <v>640</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>176</v>
+        <f t="shared" si="9"/>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3349,19 +3355,19 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>1612</v>
+        <v>1382</v>
       </c>
       <c r="D22" s="1">
-        <v>1250</v>
+        <v>880</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>1000</v>
+        <f t="shared" si="8"/>
+        <v>704</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="9"/>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -3369,19 +3375,19 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>1747</v>
+        <v>1612</v>
       </c>
       <c r="D23" s="1">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>1240</v>
+        <f t="shared" si="8"/>
+        <v>1000</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="3"/>
-        <v>310</v>
+        <f t="shared" si="9"/>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -3389,25 +3395,40 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>1843</v>
+        <v>1747</v>
       </c>
       <c r="D24" s="1">
-        <v>1800</v>
+        <v>1550</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
+        <v>1240</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1804</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <f t="shared" si="8"/>
         <v>1440</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="3"/>
+      <c r="G25" s="1">
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>

--- a/dataset/soc_model/raw/sdm650.xlsx
+++ b/dataset/soc_model/raw/sdm650.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc9559\OneDrive\proj\wipe-v2\wipe-v2\dataset\soc_model\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{39F2A3C5-7F6C-457A-BEDF-9A24E6F9A843}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{954AB625-EEEE-42DB-A1E3-A8592BA7E40E}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>item</t>
   </si>
@@ -817,10 +817,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$4:$B$12</c:f>
+              <c:f>'sd820'!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -844,19 +844,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$D$4:$D$12</c:f>
+              <c:f>'sd820'!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -880,9 +877,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,7 +1167,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$13:$B$25</c:f>
+              <c:f>'sd820'!$B$12:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1221,7 +1215,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$D$13:$D$25</c:f>
+              <c:f>'sd820'!$D$12:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2950,7 +2944,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+      <selection activeCell="A12" sqref="A12:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3153,22 +3147,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1440</v>
+        <v>400</v>
       </c>
       <c r="D12">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <f t="shared" ref="F12" si="4">0.8*D12</f>
-        <v>224</v>
+        <f t="shared" ref="F12:F17" si="4">0.8*D12</f>
+        <v>176</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12" si="5">0.2*D12</f>
-        <v>56</v>
+        <f t="shared" ref="G12:G17" si="5">0.2*D12</f>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3176,19 +3170,19 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>400</v>
+        <v>883</v>
       </c>
       <c r="D13">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F18" si="6">0.8*D13</f>
-        <v>176</v>
+        <f t="shared" si="4"/>
+        <v>336</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:G18" si="7">0.2*D13</f>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3196,19 +3190,18 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>883</v>
+        <v>940</v>
       </c>
       <c r="D14">
-        <v>420</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>450</v>
+      </c>
       <c r="F14" s="1">
-        <f t="shared" si="6"/>
-        <v>336</v>
+        <f t="shared" si="4"/>
+        <v>360</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="7"/>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3216,18 +3209,19 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>940</v>
+        <v>998</v>
       </c>
       <c r="D15">
-        <v>450</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <f t="shared" si="6"/>
-        <v>360</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3235,19 +3229,19 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>998</v>
+        <v>1056</v>
       </c>
       <c r="D16">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
-        <f t="shared" si="6"/>
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>448</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3255,19 +3249,19 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>1056</v>
-      </c>
-      <c r="D17">
-        <v>560</v>
+        <v>1113</v>
+      </c>
+      <c r="D17" s="1">
+        <v>600</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <f t="shared" si="6"/>
-        <v>448</v>
+        <f t="shared" si="4"/>
+        <v>480</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="7"/>
-        <v>112</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3275,19 +3269,19 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>1113</v>
+        <v>1190</v>
       </c>
       <c r="D18" s="1">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
-        <f t="shared" si="6"/>
-        <v>480</v>
+        <f t="shared" ref="F18:F24" si="6">0.8*D18</f>
+        <v>544</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="7"/>
-        <v>120</v>
+        <f t="shared" ref="G18:G24" si="7">0.2*D18</f>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3295,19 +3289,19 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>1190</v>
+        <v>1248</v>
       </c>
       <c r="D19" s="1">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F25" si="8">0.8*D19</f>
-        <v>544</v>
+        <f t="shared" si="6"/>
+        <v>592</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:G25" si="9">0.2*D19</f>
-        <v>136</v>
+        <f t="shared" si="7"/>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3315,19 +3309,19 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>1248</v>
+        <v>1305</v>
       </c>
       <c r="D20" s="1">
-        <v>740</v>
+        <v>800</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
-        <f t="shared" si="8"/>
-        <v>592</v>
+        <f t="shared" si="6"/>
+        <v>640</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="9"/>
-        <v>148</v>
+        <f t="shared" si="7"/>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3335,19 +3329,19 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>1305</v>
+        <v>1382</v>
       </c>
       <c r="D21" s="1">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <f t="shared" si="8"/>
-        <v>640</v>
+        <f t="shared" si="6"/>
+        <v>704</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="9"/>
-        <v>160</v>
+        <f t="shared" si="7"/>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3355,19 +3349,19 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>1382</v>
+        <v>1612</v>
       </c>
       <c r="D22" s="1">
-        <v>880</v>
+        <v>1250</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <f t="shared" si="8"/>
-        <v>704</v>
+        <f t="shared" si="6"/>
+        <v>1000</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="9"/>
-        <v>176</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -3375,19 +3369,19 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>1612</v>
+        <v>1747</v>
       </c>
       <c r="D23" s="1">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
-        <f t="shared" si="8"/>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>1240</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="9"/>
-        <v>250</v>
+        <f t="shared" si="7"/>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -3395,38 +3389,18 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>1747</v>
+        <v>1804</v>
       </c>
       <c r="D24" s="1">
-        <v>1550</v>
+        <v>1800</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <f t="shared" si="8"/>
-        <v>1240</v>
+        <f t="shared" si="6"/>
+        <v>1440</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="9"/>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>1804</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1800</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <f t="shared" si="8"/>
-        <v>1440</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
     </row>
